--- a/requerimientos/AlcanceDelProyecto_Seguimiento.xlsx
+++ b/requerimientos/AlcanceDelProyecto_Seguimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Everardo Dominguez\Documents\GitHub\mentesconalas\requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{549906D1-EA6F-4790-AF53-7E33DD3A504D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59ECD45-CBF4-4FC6-A826-F65A6C4B4AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65A85361-D220-4A43-83E7-9941929277E1}"/>
   </bookViews>
@@ -295,7 +295,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -339,6 +339,7 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -666,7 +667,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +681,7 @@
     <col min="7" max="7" width="13.42578125" style="17" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="17" customWidth="1"/>
     <col min="9" max="10" width="15.42578125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -714,7 +715,7 @@
       <c r="J1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -742,7 +743,7 @@
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="27">
+      <c r="J2" s="28">
         <f>((D2*8)-((D2*8)*K2))</f>
         <v>6</v>
       </c>
@@ -1736,11 +1737,14 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="28" t="str">
+      <c r="J40" s="29" t="str">
         <f>CONCATENATE((SUM(J2:J39) / 8), " Dias")</f>
         <v>40.5 Dias</v>
       </c>
-      <c r="K40" s="25"/>
+      <c r="K40" s="25">
+        <f>SUM(K2:K39)/31</f>
+        <v>0.22580645161290316</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
